--- a/DisenioEstructurasBrolloPizarro.xlsx
+++ b/DisenioEstructurasBrolloPizarro.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="EstructuraDatos"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
+    <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
+  </si>
+  <si>
     <t>$coleccionPalabras=</t>
   </si>
   <si>
+    <t>//indices</t>
+  </si>
+  <si>
     <t>MUJER</t>
   </si>
   <si>
@@ -37,38 +43,33 @@
     <t>GATOS</t>
   </si>
   <si>
+    <t>//valores</t>
+  </si>
+  <si>
+    <t>Información de la estructura:</t>
+  </si>
+  <si>
+    <t>Tipo: Indexado (los índices son numéricos)</t>
+  </si>
+  <si>
     <t>Tipos de datos: Almacena valores String</t>
   </si>
   <si>
-    <t>Tipo: Indexado (los índices son numéricos)</t>
-  </si>
-  <si>
-    <t>Información de la estructura:</t>
-  </si>
-  <si>
-    <t>//indices</t>
-  </si>
-  <si>
-    <t>//valores</t>
+    <t>¿Para qué se utiliza?: guarda las palabras que se pueden elegidas para jugar wordix</t>
+  </si>
+  <si>
+    <t>A continuación puede agregar el resto de las estructuras de datos</t>
   </si>
   <si>
     <t>**** COMPLETAR ****</t>
-  </si>
-  <si>
-    <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
-  </si>
-  <si>
-    <t>A continuación puede agregar el resto de las estructuras de datos</t>
-  </si>
-  <si>
-    <t>¿Para qué se utiliza?: guarda las palabras que se pueden elegidas para jugar wordix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,35 +78,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF00b050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +119,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -126,25 +136,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -154,40 +164,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -225,69 +256,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,54 +344,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -368,7 +400,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -377,7 +409,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -386,7 +418,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,10 +426,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -426,7 +458,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -439,13 +471,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -463,110 +494,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DisenioEstructurasBrolloPizarro.xlsx
+++ b/DisenioEstructurasBrolloPizarro.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fidel\Desktop\proyecto-facultad\wordix\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="EstructuraDatos"/>
+    <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
   </si>
   <si>
-    <t>$coleccionPalabras=</t>
-  </si>
-  <si>
     <t>//indices</t>
   </si>
   <si>
@@ -62,13 +64,75 @@
   </si>
   <si>
     <t>**** COMPLETAR ****</t>
+  </si>
+  <si>
+    <t>$palabras</t>
+  </si>
+  <si>
+    <t>$partidas=</t>
+  </si>
+  <si>
+    <t>"palabraWordix"</t>
+  </si>
+  <si>
+    <t>"jugador"</t>
+  </si>
+  <si>
+    <t>"intentos"</t>
+  </si>
+  <si>
+    <t>"puntaje"</t>
+  </si>
+  <si>
+    <t>YUYOS</t>
+  </si>
+  <si>
+    <t>HUEVO</t>
+  </si>
+  <si>
+    <t>GOTAS</t>
+  </si>
+  <si>
+    <t>MELON</t>
+  </si>
+  <si>
+    <t>BARCO</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>ariel</t>
+  </si>
+  <si>
+    <t>miguel</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>juli</t>
+  </si>
+  <si>
+    <t>rodri</t>
+  </si>
+  <si>
+    <t>//claves</t>
+  </si>
+  <si>
+    <t>Tipo: Multidimensional (los índices son numéricos y acceden a arreglos asociativos)</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacena arreglos asociativos</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: Se utiliza como registro de las partidas jugadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,7 +157,7 @@
     <font>
       <i/>
       <sz val="10"/>
-      <color rgb="FF00b050"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -119,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -151,11 +215,33 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -164,47 +250,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -215,10 +309,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -256,71 +350,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,7 +442,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -371,11 +465,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -384,13 +478,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +494,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -409,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,7 +512,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -426,10 +520,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -498,23 +592,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +622,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -536,9 +632,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -559,34 +655,35 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -596,10 +693,10 @@
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -608,10 +705,10 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -620,10 +717,10 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -632,10 +729,10 @@
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -644,7 +741,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -654,7 +751,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -664,9 +761,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -676,9 +773,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -688,7 +785,242 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8</v>
+      </c>
+      <c r="K16" s="4">
+        <v>9</v>
+      </c>
+      <c r="L16" s="4">
+        <v>10</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>3</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>6</v>
+      </c>
+      <c r="I19" s="12">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>5</v>
+      </c>
+      <c r="L19" s="12">
+        <v>5</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4</v>
+      </c>
+      <c r="G20" s="11">
+        <v>5</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>11</v>
+      </c>
+      <c r="L20" s="12">
+        <v>11</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>